--- a/Code/Results/Cases/Case_6_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969881303255629</v>
+        <v>0.9969881303255602</v>
       </c>
       <c r="D2">
-        <v>1.017178274699627</v>
+        <v>1.017178274699624</v>
       </c>
       <c r="E2">
-        <v>1.002973967826568</v>
+        <v>1.002973967826566</v>
       </c>
       <c r="F2">
-        <v>1.017161943027821</v>
+        <v>1.017161943027818</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041020711689759</v>
+        <v>1.041020711689758</v>
       </c>
       <c r="J2">
-        <v>1.019259300604059</v>
+        <v>1.019259300604056</v>
       </c>
       <c r="K2">
-        <v>1.028403366020437</v>
+        <v>1.028403366020434</v>
       </c>
       <c r="L2">
-        <v>1.01439202546309</v>
+        <v>1.014392025463088</v>
       </c>
       <c r="M2">
-        <v>1.028387252328466</v>
+        <v>1.028387252328463</v>
       </c>
       <c r="N2">
-        <v>1.020706765721593</v>
+        <v>1.02070676572159</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -477,22 +477,22 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043524597706676</v>
+        <v>1.043524597706677</v>
       </c>
       <c r="J3">
-        <v>1.026095225537213</v>
+        <v>1.026095225537214</v>
       </c>
       <c r="K3">
         <v>1.034420891665742</v>
       </c>
       <c r="L3">
-        <v>1.020861784146088</v>
+        <v>1.020861784146089</v>
       </c>
       <c r="M3">
         <v>1.035371480411175</v>
       </c>
       <c r="N3">
-        <v>1.027552398452243</v>
+        <v>1.027552398452244</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,16 +503,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011244121444458</v>
+        <v>1.011244121444459</v>
       </c>
       <c r="D4">
         <v>1.02840849010329</v>
       </c>
       <c r="E4">
-        <v>1.014982979420491</v>
+        <v>1.014982979420492</v>
       </c>
       <c r="F4">
-        <v>1.029986805007118</v>
+        <v>1.029986805007119</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -521,19 +521,19 @@
         <v>1.045075838574155</v>
       </c>
       <c r="J4">
-        <v>1.030364510108946</v>
+        <v>1.030364510108947</v>
       </c>
       <c r="K4">
-        <v>1.03817572604479</v>
+        <v>1.038175726044791</v>
       </c>
       <c r="L4">
         <v>1.024903874731986</v>
       </c>
       <c r="M4">
-        <v>1.039736300711429</v>
+        <v>1.03973630071143</v>
       </c>
       <c r="N4">
-        <v>1.031827745897762</v>
+        <v>1.031827745897763</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013506391651988</v>
+        <v>1.013506391651989</v>
       </c>
       <c r="D5">
-        <v>1.030191604106458</v>
+        <v>1.030191604106459</v>
       </c>
       <c r="E5">
-        <v>1.016891598351046</v>
+        <v>1.016891598351048</v>
       </c>
       <c r="F5">
-        <v>1.0320251824847</v>
+        <v>1.032025182484701</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045712345041907</v>
+        <v>1.045712345041908</v>
       </c>
       <c r="J5">
-        <v>1.032124707589955</v>
+        <v>1.032124707589956</v>
       </c>
       <c r="K5">
-        <v>1.03972298441858</v>
+        <v>1.039722984418581</v>
       </c>
       <c r="L5">
-        <v>1.026570744471445</v>
+        <v>1.026570744471446</v>
       </c>
       <c r="M5">
-        <v>1.041536558052926</v>
+        <v>1.041536558052927</v>
       </c>
       <c r="N5">
-        <v>1.033590443061091</v>
+        <v>1.033590443061092</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,7 +585,7 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013883790695166</v>
+        <v>1.013883790695167</v>
       </c>
       <c r="D6">
         <v>1.030489088664112</v>
@@ -594,7 +594,7 @@
         <v>1.017210076401621</v>
       </c>
       <c r="F6">
-        <v>1.032365314961015</v>
+        <v>1.032365314961016</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -606,16 +606,16 @@
         <v>1.032418284637949</v>
       </c>
       <c r="K6">
-        <v>1.039980996008267</v>
+        <v>1.039980996008268</v>
       </c>
       <c r="L6">
-        <v>1.026848775485659</v>
+        <v>1.02684877548566</v>
       </c>
       <c r="M6">
         <v>1.041836855252128</v>
       </c>
       <c r="N6">
-        <v>1.033884437022167</v>
+        <v>1.033884437022168</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011274515634227</v>
+        <v>1.011274515634226</v>
       </c>
       <c r="D7">
-        <v>1.028432445277184</v>
+        <v>1.028432445277183</v>
       </c>
       <c r="E7">
         <v>1.015008617005908</v>
       </c>
       <c r="F7">
-        <v>1.030014185407532</v>
+        <v>1.030014185407531</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045084403953197</v>
+        <v>1.045084403953196</v>
       </c>
       <c r="J7">
-        <v>1.030388163120028</v>
+        <v>1.030388163120027</v>
       </c>
       <c r="K7">
-        <v>1.038196520996591</v>
+        <v>1.03819652099659</v>
       </c>
       <c r="L7">
         <v>1.024926272292618</v>
       </c>
       <c r="M7">
-        <v>1.039760489411188</v>
+        <v>1.039760489411187</v>
       </c>
       <c r="N7">
-        <v>1.031851432498833</v>
+        <v>1.031851432498832</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,16 +667,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.999994496317363</v>
+        <v>0.9999944963173617</v>
       </c>
       <c r="D8">
-        <v>1.019545467179561</v>
+        <v>1.01954546717956</v>
       </c>
       <c r="E8">
-        <v>1.005503793707718</v>
+        <v>1.005503793707716</v>
       </c>
       <c r="F8">
-        <v>1.019863552136179</v>
+        <v>1.019863552136178</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -685,19 +685,19 @@
         <v>1.041881737582143</v>
       </c>
       <c r="J8">
-        <v>1.021602858226007</v>
+        <v>1.021602858226006</v>
       </c>
       <c r="K8">
-        <v>1.030467034625489</v>
+        <v>1.030467034625488</v>
       </c>
       <c r="L8">
-        <v>1.016609725177989</v>
+        <v>1.016609725177988</v>
       </c>
       <c r="M8">
-        <v>1.030781016763996</v>
+        <v>1.030781016763995</v>
       </c>
       <c r="N8">
-        <v>1.023053651464174</v>
+        <v>1.023053651464173</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9784914760848072</v>
+        <v>0.9784914760848081</v>
       </c>
       <c r="D9">
-        <v>1.00263154717118</v>
+        <v>1.002631547171182</v>
       </c>
       <c r="E9">
-        <v>0.9874421586393548</v>
+        <v>0.9874421586393558</v>
       </c>
       <c r="F9">
-        <v>1.000576466270162</v>
+        <v>1.000576466270163</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035666019225655</v>
+        <v>1.035666019225656</v>
       </c>
       <c r="J9">
-        <v>1.004827306878657</v>
+        <v>1.004827306878658</v>
       </c>
       <c r="K9">
-        <v>1.015682073156725</v>
+        <v>1.015682073156726</v>
       </c>
       <c r="L9">
-        <v>1.000742317784092</v>
+        <v>1.000742317784093</v>
       </c>
       <c r="M9">
-        <v>1.013660197629971</v>
+        <v>1.013660197629972</v>
       </c>
       <c r="N9">
-        <v>1.006254276909728</v>
+        <v>1.006254276909729</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,16 +749,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9628156318262717</v>
+        <v>0.9628156318262732</v>
       </c>
       <c r="D10">
-        <v>0.9903331441191581</v>
+        <v>0.9903331441191594</v>
       </c>
       <c r="E10">
-        <v>0.9743255355506119</v>
+        <v>0.9743255355506131</v>
       </c>
       <c r="F10">
-        <v>0.9865713776969102</v>
+        <v>0.9865713776969116</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -767,19 +767,19 @@
         <v>1.031065912874209</v>
       </c>
       <c r="J10">
-        <v>0.9925863898348458</v>
+        <v>0.9925863898348473</v>
       </c>
       <c r="K10">
-        <v>1.004879158064456</v>
+        <v>1.004879158064458</v>
       </c>
       <c r="L10">
-        <v>0.9891743571598763</v>
+        <v>0.9891743571598778</v>
       </c>
       <c r="M10">
-        <v>1.001187398101889</v>
+        <v>1.00118739810189</v>
       </c>
       <c r="N10">
-        <v>0.9939959763596617</v>
+        <v>0.9939959763596631</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9556419611509498</v>
+        <v>0.9556419611509499</v>
       </c>
       <c r="D11">
-        <v>0.9847162597322489</v>
+        <v>0.9847162597322495</v>
       </c>
       <c r="E11">
-        <v>0.9683380488469779</v>
+        <v>0.9683380488469783</v>
       </c>
       <c r="F11">
-        <v>0.9801787528681648</v>
+        <v>0.9801787528681652</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028946235925338</v>
+        <v>1.028946235925339</v>
       </c>
       <c r="J11">
-        <v>0.9869840442400299</v>
+        <v>0.9869840442400304</v>
       </c>
       <c r="K11">
-        <v>0.9999322777524915</v>
+        <v>0.999932277752492</v>
       </c>
       <c r="L11">
-        <v>0.9838828272874341</v>
+        <v>0.9838828272874346</v>
       </c>
       <c r="M11">
-        <v>0.9954844062487397</v>
+        <v>0.9954844062487401</v>
       </c>
       <c r="N11">
-        <v>0.9883856747915032</v>
+        <v>0.9883856747915034</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,16 +831,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529123617548279</v>
+        <v>0.9529123617548273</v>
       </c>
       <c r="D12">
-        <v>0.9825810610169228</v>
+        <v>0.9825810610169222</v>
       </c>
       <c r="E12">
-        <v>0.9660623564760922</v>
+        <v>0.9660623564760915</v>
       </c>
       <c r="F12">
-        <v>0.977749150579143</v>
+        <v>0.9777491505791424</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -849,19 +849,19 @@
         <v>1.028137688243725</v>
       </c>
       <c r="J12">
-        <v>0.9848524651871495</v>
+        <v>0.9848524651871491</v>
       </c>
       <c r="K12">
-        <v>0.9980497662893748</v>
+        <v>0.9980497662893747</v>
       </c>
       <c r="L12">
-        <v>0.9818699690828104</v>
+        <v>0.9818699690828097</v>
       </c>
       <c r="M12">
-        <v>0.9933154287193755</v>
+        <v>0.9933154287193748</v>
       </c>
       <c r="N12">
-        <v>0.986251068651872</v>
+        <v>0.9862510686518715</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,16 +872,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535009361459504</v>
+        <v>0.9535009361459508</v>
       </c>
       <c r="D13">
-        <v>0.9830413684617254</v>
+        <v>0.9830413684617259</v>
       </c>
       <c r="E13">
-        <v>0.9665529355437069</v>
+        <v>0.9665529355437074</v>
       </c>
       <c r="F13">
-        <v>0.9782729051161447</v>
+        <v>0.9782729051161452</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -890,19 +890,19 @@
         <v>1.028312119936826</v>
       </c>
       <c r="J13">
-        <v>0.9853120809036138</v>
+        <v>0.985312080903614</v>
       </c>
       <c r="K13">
-        <v>0.9984556907448067</v>
+        <v>0.9984556907448069</v>
       </c>
       <c r="L13">
-        <v>0.9823039644571284</v>
+        <v>0.9823039644571288</v>
       </c>
       <c r="M13">
-        <v>0.9937830667244497</v>
+        <v>0.9937830667244498</v>
       </c>
       <c r="N13">
-        <v>0.9867113370753725</v>
+        <v>0.9867113370753727</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9554177019479113</v>
+        <v>0.9554177019479108</v>
       </c>
       <c r="D14">
         <v>0.9845407919296066</v>
       </c>
       <c r="E14">
-        <v>0.9681510281130964</v>
+        <v>0.9681510281130957</v>
       </c>
       <c r="F14">
-        <v>0.9799790819952213</v>
+        <v>0.9799790819952209</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028879846499997</v>
+        <v>1.028879846499996</v>
       </c>
       <c r="J14">
-        <v>0.9868089134325897</v>
+        <v>0.9868089134325893</v>
       </c>
       <c r="K14">
-        <v>0.9997776164380422</v>
+        <v>0.999777616438042</v>
       </c>
       <c r="L14">
-        <v>0.9837174410143269</v>
+        <v>0.9837174410143263</v>
       </c>
       <c r="M14">
-        <v>0.9953061841997402</v>
+        <v>0.99530618419974</v>
       </c>
       <c r="N14">
-        <v>0.9882102952782286</v>
+        <v>0.9882102952782278</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,16 +954,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9565898444865862</v>
+        <v>0.9565898444865875</v>
       </c>
       <c r="D15">
-        <v>0.9854579999208909</v>
+        <v>0.9854579999208918</v>
       </c>
       <c r="E15">
-        <v>0.9691286409690766</v>
+        <v>0.9691286409690778</v>
       </c>
       <c r="F15">
-        <v>0.9810228238897799</v>
+        <v>0.981022823889781</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -972,19 +972,19 @@
         <v>1.029226765987475</v>
       </c>
       <c r="J15">
-        <v>0.9877242815840251</v>
+        <v>0.9877242815840263</v>
       </c>
       <c r="K15">
-        <v>1.000585982654583</v>
+        <v>1.000585982654584</v>
       </c>
       <c r="L15">
-        <v>0.9845818957082113</v>
+        <v>0.9845818957082124</v>
       </c>
       <c r="M15">
-        <v>0.9962377463206671</v>
+        <v>0.9962377463206682</v>
       </c>
       <c r="N15">
-        <v>0.989126963357433</v>
+        <v>0.9891269633574343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9632830230304189</v>
+        <v>0.9632830230304161</v>
       </c>
       <c r="D16">
-        <v>0.9906993641092579</v>
+        <v>0.9906993641092553</v>
       </c>
       <c r="E16">
-        <v>0.9747159762343404</v>
+        <v>0.9747159762343378</v>
       </c>
       <c r="F16">
-        <v>0.9869882467259367</v>
+        <v>0.986988246725934</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031203732551679</v>
+        <v>1.031203732551678</v>
       </c>
       <c r="J16">
-        <v>0.9929514085874787</v>
+        <v>0.9929514085874759</v>
       </c>
       <c r="K16">
-        <v>1.005201421457049</v>
+        <v>1.005201421457047</v>
       </c>
       <c r="L16">
-        <v>0.9895191859712571</v>
+        <v>0.9895191859712548</v>
       </c>
       <c r="M16">
-        <v>1.001559093067877</v>
+        <v>1.001559093067874</v>
       </c>
       <c r="N16">
-        <v>0.9943615134807917</v>
+        <v>0.9943615134807886</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9673735722708005</v>
+        <v>0.9673735722707996</v>
       </c>
       <c r="D17">
-        <v>0.9939057668604342</v>
+        <v>0.9939057668604335</v>
       </c>
       <c r="E17">
-        <v>0.9781347798515385</v>
+        <v>0.9781347798515382</v>
       </c>
       <c r="F17">
-        <v>0.9906385130697327</v>
+        <v>0.9906385130697323</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032408300433975</v>
+        <v>1.032408300433974</v>
       </c>
       <c r="J17">
-        <v>0.9961459634582875</v>
+        <v>0.9961459634582868</v>
       </c>
       <c r="K17">
         <v>1.008021500532214</v>
       </c>
       <c r="L17">
-        <v>0.992537363686514</v>
+        <v>0.9925373636865136</v>
       </c>
       <c r="M17">
-        <v>1.004812698502207</v>
+        <v>1.004812698502206</v>
       </c>
       <c r="N17">
-        <v>0.9975606049859372</v>
+        <v>0.9975606049859366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,16 +1077,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9697228143023797</v>
+        <v>0.9697228143023799</v>
       </c>
       <c r="D18">
-        <v>0.9957482528165268</v>
+        <v>0.995748252816527</v>
       </c>
       <c r="E18">
-        <v>0.9800996114957142</v>
+        <v>0.9800996114957143</v>
       </c>
       <c r="F18">
-        <v>0.992736408911937</v>
+        <v>0.9927364089119374</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1095,19 +1095,19 @@
         <v>1.033098725087596</v>
       </c>
       <c r="J18">
-        <v>0.9979805572045678</v>
+        <v>0.9979805572045681</v>
       </c>
       <c r="K18">
-        <v>1.009640782773137</v>
+        <v>1.009640782773138</v>
       </c>
       <c r="L18">
-        <v>0.994270926726873</v>
+        <v>0.9942709267268732</v>
       </c>
       <c r="M18">
-        <v>1.006681710463835</v>
+        <v>1.006681710463836</v>
       </c>
       <c r="N18">
-        <v>0.9993978040657683</v>
+        <v>0.9993978040657687</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,16 +1118,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705178128621745</v>
+        <v>0.9705178128621742</v>
       </c>
       <c r="D19">
-        <v>0.9963719248045425</v>
+        <v>0.9963719248045421</v>
       </c>
       <c r="E19">
-        <v>0.9807647489222141</v>
+        <v>0.9807647489222133</v>
       </c>
       <c r="F19">
-        <v>0.9934465978900343</v>
+        <v>0.993446597890034</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1136,13 +1136,13 @@
         <v>1.033332131855733</v>
       </c>
       <c r="J19">
-        <v>0.9986013777980738</v>
+        <v>0.9986013777980735</v>
       </c>
       <c r="K19">
-        <v>1.010188697349676</v>
+        <v>1.010188697349675</v>
       </c>
       <c r="L19">
-        <v>0.9948576020320079</v>
+        <v>0.9948576020320075</v>
       </c>
       <c r="M19">
         <v>1.007314261998575</v>
@@ -1159,16 +1159,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9669385385537316</v>
+        <v>0.9669385385537315</v>
       </c>
       <c r="D20">
-        <v>0.9935646546789541</v>
+        <v>0.9935646546789538</v>
       </c>
       <c r="E20">
-        <v>0.9777710413563382</v>
+        <v>0.977771041356338</v>
       </c>
       <c r="F20">
-        <v>0.9902501442806337</v>
+        <v>0.9902501442806332</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1183,13 +1183,13 @@
         <v>1.007721613673228</v>
       </c>
       <c r="L20">
-        <v>0.9922163558744649</v>
+        <v>0.9922163558744646</v>
       </c>
       <c r="M20">
         <v>1.004466627380519</v>
       </c>
       <c r="N20">
-        <v>0.9972203845141382</v>
+        <v>0.9972203845141381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,16 +1200,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548551181967326</v>
+        <v>0.9548551181967327</v>
       </c>
       <c r="D21">
-        <v>0.9841006419017608</v>
+        <v>0.9841006419017609</v>
       </c>
       <c r="E21">
-        <v>0.9676819042087529</v>
+        <v>0.9676819042087528</v>
       </c>
       <c r="F21">
-        <v>0.9794782276092858</v>
+        <v>0.9794782276092857</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1224,13 +1224,13 @@
         <v>0.9993896257465512</v>
       </c>
       <c r="L21">
-        <v>0.9833025579936815</v>
+        <v>0.9833025579936816</v>
       </c>
       <c r="M21">
         <v>0.9948591082406627</v>
       </c>
       <c r="N21">
-        <v>0.987770335505797</v>
+        <v>0.9877703355057968</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,16 +1241,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9468774340991624</v>
+        <v>0.9468774340991645</v>
       </c>
       <c r="D22">
-        <v>0.9778645278340989</v>
+        <v>0.9778645278341007</v>
       </c>
       <c r="E22">
-        <v>0.961036099589</v>
+        <v>0.961036099589002</v>
       </c>
       <c r="F22">
-        <v>0.9723831027318228</v>
+        <v>0.9723831027318246</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1259,19 +1259,19 @@
         <v>1.02634656881399</v>
       </c>
       <c r="J22">
-        <v>0.9801402186016315</v>
+        <v>0.9801402186016334</v>
       </c>
       <c r="K22">
-        <v>0.9938876270530149</v>
+        <v>0.9938876270530165</v>
       </c>
       <c r="L22">
-        <v>0.9774210783691525</v>
+        <v>0.9774210783691545</v>
       </c>
       <c r="M22">
-        <v>0.9885222523895368</v>
+        <v>0.9885222523895387</v>
       </c>
       <c r="N22">
-        <v>0.9815321301357003</v>
+        <v>0.9815321301357021</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9511452787675484</v>
+        <v>0.9511452787675497</v>
       </c>
       <c r="D23">
-        <v>0.9811994050703855</v>
+        <v>0.9811994050703868</v>
       </c>
       <c r="E23">
-        <v>0.9645898875202326</v>
+        <v>0.9645898875202337</v>
       </c>
       <c r="F23">
-        <v>0.9761771171503443</v>
+        <v>0.9761771171503456</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027613711536265</v>
+        <v>1.027613711536266</v>
       </c>
       <c r="J23">
-        <v>0.9834725933427068</v>
+        <v>0.9834725933427079</v>
       </c>
       <c r="K23">
-        <v>0.9968310470850062</v>
+        <v>0.9968310470850075</v>
       </c>
       <c r="L23">
-        <v>0.9805670863527911</v>
+        <v>0.9805670863527921</v>
       </c>
       <c r="M23">
-        <v>0.9919116096054635</v>
+        <v>0.9919116096054647</v>
       </c>
       <c r="N23">
-        <v>0.9848692372311366</v>
+        <v>0.9848692372311377</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9671352244831996</v>
+        <v>0.9671352244831979</v>
       </c>
       <c r="D24">
-        <v>0.993718873990613</v>
+        <v>0.9937188739906113</v>
       </c>
       <c r="E24">
-        <v>0.9779354892688156</v>
+        <v>0.9779354892688138</v>
       </c>
       <c r="F24">
-        <v>0.9904257275444627</v>
+        <v>0.990425727544461</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03233819451525</v>
+        <v>1.032338194515249</v>
       </c>
       <c r="J24">
-        <v>0.9959598268505353</v>
+        <v>0.9959598268505335</v>
       </c>
       <c r="K24">
-        <v>1.007857198479267</v>
+        <v>1.007857198479265</v>
       </c>
       <c r="L24">
-        <v>0.9923614882214489</v>
+        <v>0.9923614882214471</v>
       </c>
       <c r="M24">
-        <v>1.004623090519295</v>
+        <v>1.004623090519293</v>
       </c>
       <c r="N24">
-        <v>0.9973742040428519</v>
+        <v>0.9973742040428502</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,16 +1364,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9842665384168648</v>
+        <v>0.984266538416864</v>
       </c>
       <c r="D25">
-        <v>1.007169750192565</v>
+        <v>1.007169750192564</v>
       </c>
       <c r="E25">
-        <v>0.9922853252913498</v>
+        <v>0.9922853252913489</v>
       </c>
       <c r="F25">
-        <v>1.005748005944295</v>
+        <v>1.005748005944294</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1382,7 +1382,7 @@
         <v>1.037347505826272</v>
       </c>
       <c r="J25">
-        <v>1.009335250698769</v>
+        <v>1.009335250698768</v>
       </c>
       <c r="K25">
         <v>1.019657775342734</v>
@@ -1394,7 +1394,7 @@
         <v>1.018257742058755</v>
       </c>
       <c r="N25">
-        <v>1.010768622527132</v>
+        <v>1.010768622527131</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,46 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9969881303255602</v>
+        <v>0.9986626759668003</v>
       </c>
       <c r="D2">
-        <v>1.017178274699624</v>
+        <v>1.021207538630069</v>
       </c>
       <c r="E2">
-        <v>1.002973967826566</v>
+        <v>1.005134169613209</v>
       </c>
       <c r="F2">
-        <v>1.017161943027818</v>
+        <v>1.020732389419283</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041020711689758</v>
+        <v>1.04334015702163</v>
       </c>
       <c r="J2">
-        <v>1.019259300604056</v>
+        <v>1.020883459872161</v>
       </c>
       <c r="K2">
-        <v>1.028403366020434</v>
+        <v>1.032379118377434</v>
       </c>
       <c r="L2">
-        <v>1.014392025463088</v>
+        <v>1.016522437722805</v>
       </c>
       <c r="M2">
-        <v>1.028387252328463</v>
+        <v>1.031910251930435</v>
       </c>
       <c r="N2">
-        <v>1.02070676572159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010461656090163</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033965054536953</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +480,46 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005760371718438</v>
+        <v>1.003587880140602</v>
       </c>
       <c r="D3">
-        <v>1.024087206971771</v>
+        <v>1.02460133537501</v>
       </c>
       <c r="E3">
-        <v>1.010359764363814</v>
+        <v>1.009108169301433</v>
       </c>
       <c r="F3">
-        <v>1.025049384698936</v>
+        <v>1.024962309042058</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043524597706677</v>
+        <v>1.044320426198077</v>
       </c>
       <c r="J3">
-        <v>1.026095225537214</v>
+        <v>1.023981211507613</v>
       </c>
       <c r="K3">
-        <v>1.034420891665742</v>
+        <v>1.034928824271219</v>
       </c>
       <c r="L3">
-        <v>1.020861784146089</v>
+        <v>1.019625820913718</v>
       </c>
       <c r="M3">
-        <v>1.035371480411175</v>
+        <v>1.035285452428624</v>
       </c>
       <c r="N3">
-        <v>1.027552398452244</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011540999348879</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.035765263572816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +527,46 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011244121444459</v>
+        <v>1.006709606320099</v>
       </c>
       <c r="D4">
-        <v>1.02840849010329</v>
+        <v>1.026756186574723</v>
       </c>
       <c r="E4">
-        <v>1.014982979420492</v>
+        <v>1.011633257954866</v>
       </c>
       <c r="F4">
-        <v>1.029986805007119</v>
+        <v>1.027649847540079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045075838574155</v>
+        <v>1.044931465824881</v>
       </c>
       <c r="J4">
-        <v>1.030364510108947</v>
+        <v>1.025943223101724</v>
       </c>
       <c r="K4">
-        <v>1.038175726044791</v>
+        <v>1.036542066395088</v>
       </c>
       <c r="L4">
-        <v>1.024903874731986</v>
+        <v>1.021593278435398</v>
       </c>
       <c r="M4">
-        <v>1.03973630071143</v>
+        <v>1.037425634504441</v>
       </c>
       <c r="N4">
-        <v>1.031827745897763</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012224098169601</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.036906878061205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +574,46 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013506391651989</v>
+        <v>1.008012218133668</v>
       </c>
       <c r="D5">
-        <v>1.030191604106459</v>
+        <v>1.027658372143391</v>
       </c>
       <c r="E5">
-        <v>1.016891598351048</v>
+        <v>1.01268894858373</v>
       </c>
       <c r="F5">
-        <v>1.032025182484701</v>
+        <v>1.028774000418348</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045712345041908</v>
+        <v>1.045185663289346</v>
       </c>
       <c r="J5">
-        <v>1.032124707589956</v>
+        <v>1.02676335695755</v>
       </c>
       <c r="K5">
-        <v>1.039722984418581</v>
+        <v>1.037217534852162</v>
       </c>
       <c r="L5">
-        <v>1.026570744471446</v>
+        <v>1.022415782221446</v>
       </c>
       <c r="M5">
-        <v>1.041536558052927</v>
+        <v>1.038320907129267</v>
       </c>
       <c r="N5">
-        <v>1.033590443061092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.012510095393116</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.037391692221873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +621,46 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013883790695167</v>
+        <v>1.008236461187945</v>
       </c>
       <c r="D6">
-        <v>1.030489088664112</v>
+        <v>1.027816380045842</v>
       </c>
       <c r="E6">
-        <v>1.017210076401621</v>
+        <v>1.012871479421738</v>
       </c>
       <c r="F6">
-        <v>1.032365314961016</v>
+        <v>1.028969076876927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045818324139177</v>
+        <v>1.045231397578217</v>
       </c>
       <c r="J6">
-        <v>1.032418284637949</v>
+        <v>1.026906733133319</v>
       </c>
       <c r="K6">
-        <v>1.039980996008268</v>
+        <v>1.037337458185769</v>
       </c>
       <c r="L6">
-        <v>1.02684877548566</v>
+        <v>1.022559167385445</v>
       </c>
       <c r="M6">
-        <v>1.041836855252128</v>
+        <v>1.038477551300638</v>
       </c>
       <c r="N6">
-        <v>1.033884437022168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012560803958885</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037485263203015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +668,46 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011274515634226</v>
+        <v>1.006744341778761</v>
       </c>
       <c r="D7">
-        <v>1.028432445277183</v>
+        <v>1.026787351021197</v>
       </c>
       <c r="E7">
-        <v>1.015008617005908</v>
+        <v>1.011663334355562</v>
       </c>
       <c r="F7">
-        <v>1.030014185407531</v>
+        <v>1.027683749869456</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045084403953196</v>
+        <v>1.044943979795762</v>
       </c>
       <c r="J7">
-        <v>1.030388163120027</v>
+        <v>1.025971057822893</v>
       </c>
       <c r="K7">
-        <v>1.03819652099659</v>
+        <v>1.0365699818533</v>
       </c>
       <c r="L7">
-        <v>1.024926272292618</v>
+        <v>1.02162004722125</v>
       </c>
       <c r="M7">
-        <v>1.039760489411187</v>
+        <v>1.037456261092365</v>
       </c>
       <c r="N7">
-        <v>1.031851432498832</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012235768874354</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.036946805355556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +715,46 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9999944963173617</v>
+        <v>1.000362997228814</v>
       </c>
       <c r="D8">
-        <v>1.01954546717956</v>
+        <v>1.022387241015969</v>
       </c>
       <c r="E8">
-        <v>1.005503793707716</v>
+        <v>1.006507332410006</v>
       </c>
       <c r="F8">
-        <v>1.019863552136178</v>
+        <v>1.022196212582305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041881737582143</v>
+        <v>1.043687849526577</v>
       </c>
       <c r="J8">
-        <v>1.021602858226006</v>
+        <v>1.021960674946276</v>
       </c>
       <c r="K8">
-        <v>1.030467034625488</v>
+        <v>1.033272266950848</v>
       </c>
       <c r="L8">
-        <v>1.016609725177988</v>
+        <v>1.017599873366252</v>
       </c>
       <c r="M8">
-        <v>1.030781016763995</v>
+        <v>1.03308368693138</v>
       </c>
       <c r="N8">
-        <v>1.023053651464173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010839692870905</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034619630621215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +762,46 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9784914760848081</v>
+        <v>0.9885617060665923</v>
       </c>
       <c r="D9">
-        <v>1.002631547171182</v>
+        <v>1.014271756480375</v>
       </c>
       <c r="E9">
-        <v>0.9874421586393558</v>
+        <v>0.9970212821938389</v>
       </c>
       <c r="F9">
-        <v>1.000576466270163</v>
+        <v>1.01209629127068</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035666019225656</v>
+        <v>1.041275706506351</v>
       </c>
       <c r="J9">
-        <v>1.004827306878658</v>
+        <v>1.014524947971427</v>
       </c>
       <c r="K9">
-        <v>1.015682073156726</v>
+        <v>1.027137451590317</v>
       </c>
       <c r="L9">
-        <v>1.000742317784093</v>
+        <v>1.010162872595382</v>
       </c>
       <c r="M9">
-        <v>1.013660197629972</v>
+        <v>1.024996116449975</v>
       </c>
       <c r="N9">
-        <v>1.006254276909729</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.008243992430033</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.030278634498472</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +809,46 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9628156318262732</v>
+        <v>0.9803020650181985</v>
       </c>
       <c r="D10">
-        <v>0.9903331441191594</v>
+        <v>1.008621945996451</v>
       </c>
       <c r="E10">
-        <v>0.9743255355506131</v>
+        <v>0.9904224800376228</v>
       </c>
       <c r="F10">
-        <v>0.9865713776969116</v>
+        <v>1.005070483230121</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031065912874209</v>
+        <v>1.039538665857933</v>
       </c>
       <c r="J10">
-        <v>0.9925863898348473</v>
+        <v>1.009319609103629</v>
       </c>
       <c r="K10">
-        <v>1.004879158064458</v>
+        <v>1.0228372541632</v>
       </c>
       <c r="L10">
-        <v>0.9891743571598778</v>
+        <v>1.004966839870358</v>
       </c>
       <c r="M10">
-        <v>1.00118739810189</v>
+        <v>1.019348788078636</v>
       </c>
       <c r="N10">
-        <v>0.9939959763596631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.006425794089955</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.027255033418742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +856,46 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9556419611509499</v>
+        <v>0.9766447354511392</v>
       </c>
       <c r="D11">
-        <v>0.9847162597322495</v>
+        <v>1.006137004213101</v>
       </c>
       <c r="E11">
-        <v>0.9683380488469783</v>
+        <v>0.9875140235432316</v>
       </c>
       <c r="F11">
-        <v>0.9801787528681652</v>
+        <v>1.001975464293319</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028946235925339</v>
+        <v>1.038765519045991</v>
       </c>
       <c r="J11">
-        <v>0.9869840442400304</v>
+        <v>1.007022465340593</v>
       </c>
       <c r="K11">
-        <v>0.999932277752492</v>
+        <v>1.020944106270535</v>
       </c>
       <c r="L11">
-        <v>0.9838828272874346</v>
+        <v>1.002675312029646</v>
       </c>
       <c r="M11">
-        <v>0.9954844062487401</v>
+        <v>1.016860222161426</v>
       </c>
       <c r="N11">
-        <v>0.9883856747915034</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005626244352378</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025949688859069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +903,46 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9529123617548273</v>
+        <v>0.9752564544476378</v>
       </c>
       <c r="D12">
-        <v>0.9825810610169222</v>
+        <v>1.00518996077191</v>
       </c>
       <c r="E12">
-        <v>0.9660623564760915</v>
+        <v>0.9864099206361595</v>
       </c>
       <c r="F12">
-        <v>0.9777491505791424</v>
+        <v>1.000799539247605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028137688243725</v>
+        <v>1.038466391460884</v>
       </c>
       <c r="J12">
-        <v>0.9848524651871491</v>
+        <v>1.006146219081957</v>
       </c>
       <c r="K12">
-        <v>0.9980497662893747</v>
+        <v>1.020218400247856</v>
       </c>
       <c r="L12">
-        <v>0.9818699690828097</v>
+        <v>1.0018022002522</v>
       </c>
       <c r="M12">
-        <v>0.9933154287193748</v>
+        <v>1.015911437361679</v>
       </c>
       <c r="N12">
-        <v>0.9862510686518715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.00531951561346</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025436579095384</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +950,46 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9535009361459508</v>
+        <v>0.9755524054335084</v>
       </c>
       <c r="D13">
-        <v>0.9830413684617259</v>
+        <v>1.005390804255911</v>
       </c>
       <c r="E13">
-        <v>0.9665529355437074</v>
+        <v>0.9866448708366471</v>
       </c>
       <c r="F13">
-        <v>0.9782729051161452</v>
+        <v>1.001049586382931</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028312119936826</v>
+        <v>1.038529448520391</v>
       </c>
       <c r="J13">
-        <v>0.985312080903614</v>
+        <v>1.006332165031091</v>
       </c>
       <c r="K13">
-        <v>0.9984556907448069</v>
+        <v>1.020371759154687</v>
       </c>
       <c r="L13">
-        <v>0.9823039644571288</v>
+        <v>1.001987575141561</v>
       </c>
       <c r="M13">
-        <v>0.9937830667244498</v>
+        <v>1.016112739136013</v>
       </c>
       <c r="N13">
-        <v>0.9867113370753727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005384269235096</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025542486640467</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +997,46 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9554177019479108</v>
+        <v>0.9765292145605956</v>
       </c>
       <c r="D14">
-        <v>0.9845407919296066</v>
+        <v>1.006057751649491</v>
       </c>
       <c r="E14">
-        <v>0.9681510281130957</v>
+        <v>0.987421968923612</v>
       </c>
       <c r="F14">
-        <v>0.9799790819952209</v>
+        <v>1.001877341072089</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028879846499996</v>
+        <v>1.038740327197066</v>
       </c>
       <c r="J14">
-        <v>0.9868089134325893</v>
+        <v>1.006949188866167</v>
       </c>
       <c r="K14">
-        <v>0.999777616438042</v>
+        <v>1.020883144958889</v>
       </c>
       <c r="L14">
-        <v>0.9837174410143263</v>
+        <v>1.00260233776892</v>
       </c>
       <c r="M14">
-        <v>0.99530618419974</v>
+        <v>1.016780862629466</v>
       </c>
       <c r="N14">
-        <v>0.9882102952782278</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005600451151747</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.025905504889219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1044,46 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9565898444865875</v>
+        <v>0.9771339647373559</v>
       </c>
       <c r="D15">
-        <v>0.9854579999208918</v>
+        <v>1.006472792074019</v>
       </c>
       <c r="E15">
-        <v>0.9691286409690778</v>
+        <v>0.9879039751057097</v>
       </c>
       <c r="F15">
-        <v>0.981022823889781</v>
+        <v>1.002391144367783</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029226765987475</v>
+        <v>1.038872218754733</v>
       </c>
       <c r="J15">
-        <v>0.9877242815840263</v>
+        <v>1.00733287866521</v>
       </c>
       <c r="K15">
-        <v>1.000585982654584</v>
+        <v>1.021202409643785</v>
       </c>
       <c r="L15">
-        <v>0.9845818957082124</v>
+        <v>1.002984448725058</v>
       </c>
       <c r="M15">
-        <v>0.9962377463206682</v>
+        <v>1.01719642995971</v>
       </c>
       <c r="N15">
-        <v>0.9891269633574343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005735540318545</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026137185516993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1091,46 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9632830230304161</v>
+        <v>0.9805865716708879</v>
       </c>
       <c r="D16">
-        <v>0.9906993641092553</v>
+        <v>1.00883243119152</v>
       </c>
       <c r="E16">
-        <v>0.9747159762343378</v>
+        <v>0.9906547538002463</v>
       </c>
       <c r="F16">
-        <v>0.986988246725934</v>
+        <v>1.005321038981346</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031203732551678</v>
+        <v>1.039612039966182</v>
       </c>
       <c r="J16">
-        <v>0.9929514085874759</v>
+        <v>1.009512848608217</v>
       </c>
       <c r="K16">
-        <v>1.005201421457047</v>
+        <v>1.023007809025664</v>
       </c>
       <c r="L16">
-        <v>0.9895191859712548</v>
+        <v>1.005157634052833</v>
       </c>
       <c r="M16">
-        <v>1.001559093067874</v>
+        <v>1.01955848306361</v>
       </c>
       <c r="N16">
-        <v>0.9943615134807886</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006498748989001</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027416892590174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1138,46 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9673735722707996</v>
+        <v>0.982723178947366</v>
       </c>
       <c r="D17">
-        <v>0.9939057668604335</v>
+        <v>1.010294724361467</v>
       </c>
       <c r="E17">
-        <v>0.9781347798515382</v>
+        <v>0.9923597989277637</v>
       </c>
       <c r="F17">
-        <v>0.9906385130697323</v>
+        <v>1.00713710420395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032408300433974</v>
+        <v>1.040066863724404</v>
       </c>
       <c r="J17">
-        <v>0.9961459634582868</v>
+        <v>1.010861861006318</v>
       </c>
       <c r="K17">
-        <v>1.008021500532214</v>
+        <v>1.024124625791067</v>
       </c>
       <c r="L17">
-        <v>0.9925373636865136</v>
+        <v>1.006503127943753</v>
       </c>
       <c r="M17">
-        <v>1.004812698502206</v>
+        <v>1.021021140761768</v>
       </c>
       <c r="N17">
-        <v>0.9975606049859366</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006970921907942</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.028209148534055</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1185,46 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9697228143023799</v>
+        <v>0.9839458241797956</v>
       </c>
       <c r="D18">
-        <v>0.995748252816527</v>
+        <v>1.011127031231905</v>
       </c>
       <c r="E18">
-        <v>0.9800996114957143</v>
+        <v>0.9933347238559606</v>
       </c>
       <c r="F18">
-        <v>0.9927364089119374</v>
+        <v>1.008174444000208</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033098725087596</v>
+        <v>1.040321926551226</v>
       </c>
       <c r="J18">
-        <v>0.9979805572045681</v>
+        <v>1.01162936613321</v>
       </c>
       <c r="K18">
-        <v>1.009640782773138</v>
+        <v>1.024756422498388</v>
       </c>
       <c r="L18">
-        <v>0.9942709267268732</v>
+        <v>1.007269509107609</v>
       </c>
       <c r="M18">
-        <v>1.006681710463836</v>
+        <v>1.021853552091516</v>
       </c>
       <c r="N18">
-        <v>0.9993978040657687</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.00723781392192</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.028644094877073</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1232,46 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9705178128621742</v>
+        <v>0.984371397108988</v>
       </c>
       <c r="D19">
-        <v>0.9963719248045421</v>
+        <v>1.011420886044114</v>
       </c>
       <c r="E19">
-        <v>0.9807647489222133</v>
+        <v>0.9936755744097917</v>
       </c>
       <c r="F19">
-        <v>0.993446597890034</v>
+        <v>1.008537943312687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033332131855733</v>
+        <v>1.040413728823777</v>
       </c>
       <c r="J19">
-        <v>0.9986013777980735</v>
+        <v>1.011899954008009</v>
       </c>
       <c r="K19">
-        <v>1.010188697349675</v>
+        <v>1.024981847676868</v>
       </c>
       <c r="L19">
-        <v>0.9948576020320075</v>
+        <v>1.007539241042932</v>
       </c>
       <c r="M19">
-        <v>1.007314261998575</v>
+        <v>1.022147148654307</v>
       </c>
       <c r="N19">
-        <v>1.000019506295726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.007333235510438</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.028809939967803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1279,46 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9669385385537315</v>
+        <v>0.9824939531618033</v>
       </c>
       <c r="D20">
-        <v>0.9935646546789538</v>
+        <v>1.01013736592159</v>
       </c>
       <c r="E20">
-        <v>0.977771041356338</v>
+        <v>0.9921766373574974</v>
       </c>
       <c r="F20">
-        <v>0.9902501442806332</v>
+        <v>1.006941935421084</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032280334915064</v>
+        <v>1.040017862188642</v>
       </c>
       <c r="J20">
-        <v>0.995806225453424</v>
+        <v>1.01071679142972</v>
       </c>
       <c r="K20">
-        <v>1.007721613673228</v>
+        <v>1.024004273719673</v>
       </c>
       <c r="L20">
-        <v>0.9922163558744646</v>
+        <v>1.006358460377929</v>
       </c>
       <c r="M20">
-        <v>1.004466627380519</v>
+        <v>1.020863807772201</v>
       </c>
       <c r="N20">
-        <v>0.9972203845141381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006920016842004</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.028122704438553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1326,46 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9548551181967327</v>
+        <v>0.9762567314287669</v>
       </c>
       <c r="D21">
-        <v>0.9841006419017609</v>
+        <v>1.005877205058763</v>
       </c>
       <c r="E21">
-        <v>0.9676819042087528</v>
+        <v>0.987207081182593</v>
       </c>
       <c r="F21">
-        <v>0.9794782276092857</v>
+        <v>1.001649495958089</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02871326833946</v>
+        <v>1.038685941770321</v>
       </c>
       <c r="J21">
-        <v>0.9863695775674791</v>
+        <v>1.006781819198048</v>
       </c>
       <c r="K21">
-        <v>0.9993896257465512</v>
+        <v>1.020748080951734</v>
       </c>
       <c r="L21">
-        <v>0.9833025579936816</v>
+        <v>1.002434941346871</v>
       </c>
       <c r="M21">
-        <v>0.9948591082406627</v>
+        <v>1.016599685374297</v>
       </c>
       <c r="N21">
-        <v>0.9877703355057968</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.005543705048116</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.025823690603263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1373,46 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9468774340991645</v>
+        <v>0.9722181196912099</v>
       </c>
       <c r="D22">
-        <v>0.9778645278341007</v>
+        <v>1.003119038555853</v>
       </c>
       <c r="E22">
-        <v>0.961036099589002</v>
+        <v>0.9839963874190976</v>
       </c>
       <c r="F22">
-        <v>0.9723831027318246</v>
+        <v>0.9982288884334193</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02634656881399</v>
+        <v>1.037808202113325</v>
       </c>
       <c r="J22">
-        <v>0.9801402186016334</v>
+        <v>1.004228040534941</v>
       </c>
       <c r="K22">
-        <v>0.9938876270530165</v>
+        <v>1.018628958879016</v>
       </c>
       <c r="L22">
-        <v>0.9774210783691545</v>
+        <v>0.999891688157764</v>
       </c>
       <c r="M22">
-        <v>0.9885222523895387</v>
+        <v>1.013835513229553</v>
       </c>
       <c r="N22">
-        <v>0.9815321301357021</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004647738879623</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.024311679950881</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1420,46 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9511452787675497</v>
+        <v>0.9743511249579213</v>
       </c>
       <c r="D23">
-        <v>0.9811994050703868</v>
+        <v>1.004568423278448</v>
       </c>
       <c r="E23">
-        <v>0.9645898875202337</v>
+        <v>0.9856888673237736</v>
       </c>
       <c r="F23">
-        <v>0.9761771171503456</v>
+        <v>1.000030775278178</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027613711536266</v>
+        <v>1.038267426552814</v>
       </c>
       <c r="J23">
-        <v>0.9834725933427079</v>
+        <v>1.005571102265114</v>
       </c>
       <c r="K23">
-        <v>0.9968310470850075</v>
+        <v>1.019739191793516</v>
       </c>
       <c r="L23">
-        <v>0.9805670863527921</v>
+        <v>1.001229738073347</v>
       </c>
       <c r="M23">
-        <v>0.9919116096054647</v>
+        <v>1.015288825168609</v>
       </c>
       <c r="N23">
-        <v>0.9848692372311377</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.005116694379077</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.025086919206781</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1467,46 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9671352244831979</v>
+        <v>0.9825692104071398</v>
       </c>
       <c r="D24">
-        <v>0.9937188739906113</v>
+        <v>1.01017819676109</v>
       </c>
       <c r="E24">
-        <v>0.9779354892688138</v>
+        <v>0.9922331441725025</v>
       </c>
       <c r="F24">
-        <v>0.990425727544461</v>
+        <v>1.006999948830611</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032338194515249</v>
+        <v>1.040025330618388</v>
       </c>
       <c r="J24">
-        <v>0.9959598268505335</v>
+        <v>1.010755157609745</v>
       </c>
       <c r="K24">
-        <v>1.007857198479265</v>
+        <v>1.024028898798448</v>
       </c>
       <c r="L24">
-        <v>0.9923614882214471</v>
+        <v>1.006398041331288</v>
       </c>
       <c r="M24">
-        <v>1.004623090519293</v>
+        <v>1.020905242628644</v>
       </c>
       <c r="N24">
-        <v>0.9973742040428502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006929904860684</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.028112422911648</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1514,43 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.984266538416864</v>
+        <v>0.9917082813724246</v>
       </c>
       <c r="D25">
-        <v>1.007169750192564</v>
+        <v>1.016442493146986</v>
       </c>
       <c r="E25">
-        <v>0.9922853252913489</v>
+        <v>0.9995475321359159</v>
       </c>
       <c r="F25">
-        <v>1.005748005944294</v>
+        <v>1.014788661060152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037347505826272</v>
+        <v>1.041936950177483</v>
       </c>
       <c r="J25">
-        <v>1.009335250698768</v>
+        <v>1.016517953775563</v>
       </c>
       <c r="K25">
-        <v>1.019657775342734</v>
+        <v>1.028790812217999</v>
       </c>
       <c r="L25">
-        <v>1.00500459393874</v>
+        <v>1.01215287614823</v>
       </c>
       <c r="M25">
-        <v>1.018257742058755</v>
+        <v>1.027161659277606</v>
       </c>
       <c r="N25">
-        <v>1.010768622527131</v>
+        <v>1.008943644656034</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.031476504541558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_6/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,46 +439,55 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9986626759668003</v>
+        <v>0.9990650718343456</v>
       </c>
       <c r="D2">
-        <v>1.021207538630069</v>
+        <v>1.021208886596477</v>
       </c>
       <c r="E2">
-        <v>1.005134169613209</v>
+        <v>1.00551322458543</v>
       </c>
       <c r="F2">
-        <v>1.020732389419283</v>
+        <v>1.020823373195083</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.04334015702163</v>
+        <v>1.043379600977831</v>
       </c>
       <c r="J2">
-        <v>1.020883459872161</v>
+        <v>1.021273782446427</v>
       </c>
       <c r="K2">
-        <v>1.032379118377434</v>
+        <v>1.032380448530516</v>
       </c>
       <c r="L2">
-        <v>1.016522437722805</v>
+        <v>1.016896282099064</v>
       </c>
       <c r="M2">
-        <v>1.031910251930435</v>
+        <v>1.032000032085534</v>
       </c>
       <c r="N2">
-        <v>1.010461656090163</v>
+        <v>1.012563137902825</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033965054536953</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033974821991811</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020596515405154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -480,46 +495,55 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.003587880140602</v>
+        <v>1.003643002994844</v>
       </c>
       <c r="D3">
-        <v>1.02460133537501</v>
+        <v>1.024242910992468</v>
       </c>
       <c r="E3">
-        <v>1.009108169301433</v>
+        <v>1.009182462251032</v>
       </c>
       <c r="F3">
-        <v>1.024962309042058</v>
+        <v>1.024691184921865</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044320426198077</v>
+        <v>1.044205795127312</v>
       </c>
       <c r="J3">
-        <v>1.023981211507613</v>
+        <v>1.024034846346805</v>
       </c>
       <c r="K3">
-        <v>1.034928824271219</v>
+        <v>1.034574718471182</v>
       </c>
       <c r="L3">
-        <v>1.019625820913718</v>
+        <v>1.019699184630247</v>
       </c>
       <c r="M3">
-        <v>1.035285452428624</v>
+        <v>1.035017591826976</v>
       </c>
       <c r="N3">
-        <v>1.011540999348879</v>
+        <v>1.01332612828694</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.035765263572816</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.035523419288643</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021089466379023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -527,46 +551,55 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006709606320099</v>
+        <v>1.006547991730814</v>
       </c>
       <c r="D4">
-        <v>1.026756186574723</v>
+        <v>1.026171951398901</v>
       </c>
       <c r="E4">
-        <v>1.011633257954866</v>
+        <v>1.011517078773044</v>
       </c>
       <c r="F4">
-        <v>1.027649847540079</v>
+        <v>1.02715194622098</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044931465824881</v>
+        <v>1.044720043921559</v>
       </c>
       <c r="J4">
-        <v>1.025943223101724</v>
+        <v>1.025785669487223</v>
       </c>
       <c r="K4">
-        <v>1.036542066395088</v>
+        <v>1.035964441185473</v>
       </c>
       <c r="L4">
-        <v>1.021593278435398</v>
+        <v>1.021478461994848</v>
       </c>
       <c r="M4">
-        <v>1.037425634504441</v>
+        <v>1.036933353728892</v>
       </c>
       <c r="N4">
-        <v>1.012224098169601</v>
+        <v>1.013809699582864</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.036906878061205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036507061702528</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021399163106642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -574,46 +607,55 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.008012218133668</v>
+        <v>1.007760796794614</v>
       </c>
       <c r="D5">
-        <v>1.027658372143391</v>
+        <v>1.026980368037373</v>
       </c>
       <c r="E5">
-        <v>1.01268894858373</v>
+        <v>1.012493774105532</v>
       </c>
       <c r="F5">
-        <v>1.028774000418348</v>
+        <v>1.028182020341331</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045185663289346</v>
+        <v>1.044933997513515</v>
       </c>
       <c r="J5">
-        <v>1.02676335695755</v>
+        <v>1.026518060399786</v>
       </c>
       <c r="K5">
-        <v>1.037217534852162</v>
+        <v>1.036546995105495</v>
       </c>
       <c r="L5">
-        <v>1.022415782221446</v>
+        <v>1.022222834256902</v>
       </c>
       <c r="M5">
-        <v>1.038320907129267</v>
+        <v>1.037735426320379</v>
       </c>
       <c r="N5">
-        <v>1.012510095393116</v>
+        <v>1.014012361254052</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.037391692221873</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.036926885259768</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02152891677575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -621,46 +663,55 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.008236461187945</v>
+        <v>1.007969463372543</v>
       </c>
       <c r="D6">
-        <v>1.027816380045842</v>
+        <v>1.027122196685915</v>
       </c>
       <c r="E6">
-        <v>1.012871479421738</v>
+        <v>1.012662579064546</v>
       </c>
       <c r="F6">
-        <v>1.028969076876927</v>
+        <v>1.02836084557462</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045231397578217</v>
+        <v>1.044972746642325</v>
       </c>
       <c r="J6">
-        <v>1.026906733133319</v>
+        <v>1.026646205347569</v>
       </c>
       <c r="K6">
-        <v>1.037337458185769</v>
+        <v>1.036650881866701</v>
       </c>
       <c r="L6">
-        <v>1.022559167385445</v>
+        <v>1.022352638867756</v>
       </c>
       <c r="M6">
-        <v>1.038477551300638</v>
+        <v>1.037875966144263</v>
       </c>
       <c r="N6">
-        <v>1.012560803958885</v>
+        <v>1.014048354852634</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037485263203015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037009984787518</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021552679421635</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -668,46 +719,55 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006744341778761</v>
+        <v>1.006591780291409</v>
       </c>
       <c r="D7">
-        <v>1.026787351021197</v>
+        <v>1.02620917663521</v>
       </c>
       <c r="E7">
-        <v>1.011663334355562</v>
+        <v>1.011555498144314</v>
       </c>
       <c r="F7">
-        <v>1.027683749869456</v>
+        <v>1.0271927911484</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044943979795762</v>
+        <v>1.044735379424363</v>
       </c>
       <c r="J7">
-        <v>1.025971057822893</v>
+        <v>1.025822328023931</v>
       </c>
       <c r="K7">
-        <v>1.0365699818533</v>
+        <v>1.035998346142341</v>
       </c>
       <c r="L7">
-        <v>1.02162004722125</v>
+        <v>1.021513475361326</v>
       </c>
       <c r="M7">
-        <v>1.037456261092365</v>
+        <v>1.036970842197692</v>
       </c>
       <c r="N7">
-        <v>1.012235768874354</v>
+        <v>1.013847757734339</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.036946805355556</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036553220663188</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.02140932800965</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -715,46 +775,55 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000362997228814</v>
+        <v>1.000681072524156</v>
       </c>
       <c r="D8">
-        <v>1.022387241015969</v>
+        <v>1.02229099385635</v>
       </c>
       <c r="E8">
-        <v>1.006507332410006</v>
+        <v>1.006813900232696</v>
       </c>
       <c r="F8">
-        <v>1.022196212582305</v>
+        <v>1.022191558305136</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043687849526577</v>
+        <v>1.043686475481909</v>
       </c>
       <c r="J8">
-        <v>1.021960674946276</v>
+        <v>1.022269536746152</v>
       </c>
       <c r="K8">
-        <v>1.033272266950848</v>
+        <v>1.0331772532495</v>
       </c>
       <c r="L8">
-        <v>1.017599873366252</v>
+        <v>1.017902357246448</v>
       </c>
       <c r="M8">
-        <v>1.03308368693138</v>
+        <v>1.033079092322424</v>
       </c>
       <c r="N8">
-        <v>1.010839692870905</v>
+        <v>1.012920909859015</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034619630621215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034563531441987</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020780890043459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -762,46 +831,55 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9885617060665923</v>
+        <v>0.9897402891075971</v>
       </c>
       <c r="D9">
-        <v>1.014271756480375</v>
+        <v>1.015056677088026</v>
       </c>
       <c r="E9">
-        <v>0.9970212821938389</v>
+        <v>0.9980814124218672</v>
       </c>
       <c r="F9">
-        <v>1.01209629127068</v>
+        <v>1.012982374341541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.041275706506351</v>
+        <v>1.041651485352507</v>
       </c>
       <c r="J9">
-        <v>1.014524947971427</v>
+        <v>1.015660619839414</v>
       </c>
       <c r="K9">
-        <v>1.027137451590317</v>
+        <v>1.027910103788598</v>
       </c>
       <c r="L9">
-        <v>1.010162872595382</v>
+        <v>1.011205694255471</v>
       </c>
       <c r="M9">
-        <v>1.024996116449975</v>
+        <v>1.025868275453933</v>
       </c>
       <c r="N9">
-        <v>1.008243992430033</v>
+        <v>1.011101870070535</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.030278634498472</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.030835794710142</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.019581998682499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -809,46 +887,55 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9803020650181985</v>
+        <v>0.982162281451485</v>
       </c>
       <c r="D10">
-        <v>1.008621945996451</v>
+        <v>1.010080555381573</v>
       </c>
       <c r="E10">
-        <v>0.9904224800376228</v>
+        <v>0.992079557056909</v>
       </c>
       <c r="F10">
-        <v>1.005070483230121</v>
+        <v>1.006645237786817</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.039538665857933</v>
+        <v>1.040203892797394</v>
       </c>
       <c r="J10">
-        <v>1.009319609103629</v>
+        <v>1.011101941558523</v>
       </c>
       <c r="K10">
-        <v>1.0228372541632</v>
+        <v>1.024270156736817</v>
       </c>
       <c r="L10">
-        <v>1.004966839870358</v>
+        <v>1.006593305415606</v>
       </c>
       <c r="M10">
-        <v>1.019348788078636</v>
+        <v>1.020895538098042</v>
       </c>
       <c r="N10">
-        <v>1.006425794089955</v>
+        <v>1.009961296936906</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.027255033418742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.028280735647332</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018745231773369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -856,46 +943,55 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9766447354511392</v>
+        <v>0.9789034945086943</v>
       </c>
       <c r="D11">
-        <v>1.006137004213101</v>
+        <v>1.007967041904125</v>
       </c>
       <c r="E11">
-        <v>0.9875140235432316</v>
+        <v>0.9895239743297728</v>
       </c>
       <c r="F11">
-        <v>1.001975464293319</v>
+        <v>1.003936502220813</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038765519045991</v>
+        <v>1.03959312773309</v>
       </c>
       <c r="J11">
-        <v>1.007022465340593</v>
+        <v>1.009181032923272</v>
       </c>
       <c r="K11">
-        <v>1.020944106270535</v>
+        <v>1.02274025939894</v>
       </c>
       <c r="L11">
-        <v>1.002675312029646</v>
+        <v>1.004646194769943</v>
       </c>
       <c r="M11">
-        <v>1.016860222161426</v>
+        <v>1.018784561750147</v>
       </c>
       <c r="N11">
-        <v>1.005626244352378</v>
+        <v>1.009669371564489</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025949688859069</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.027235434188257</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018399820330158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -903,46 +999,55 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9752564544476378</v>
+        <v>0.9776766898429823</v>
       </c>
       <c r="D12">
-        <v>1.00518996077191</v>
+        <v>1.007168869681882</v>
       </c>
       <c r="E12">
-        <v>0.9864099206361595</v>
+        <v>0.9885632943214001</v>
       </c>
       <c r="F12">
-        <v>1.000799539247605</v>
+        <v>1.002915977966283</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038466391460884</v>
+        <v>1.039359544512653</v>
       </c>
       <c r="J12">
-        <v>1.006146219081957</v>
+        <v>1.008456809466696</v>
       </c>
       <c r="K12">
-        <v>1.020218400247856</v>
+        <v>1.022160002291002</v>
       </c>
       <c r="L12">
-        <v>1.0018022002522</v>
+        <v>1.003912933309418</v>
       </c>
       <c r="M12">
-        <v>1.015911437361679</v>
+        <v>1.017987524861169</v>
       </c>
       <c r="N12">
-        <v>1.00531951561346</v>
+        <v>1.009574828446811</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025436579095384</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026825174133094</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018267871120934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -950,46 +1055,55 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9755524054335084</v>
+        <v>0.9779378180014804</v>
       </c>
       <c r="D13">
-        <v>1.005390804255911</v>
+        <v>1.007337647219716</v>
       </c>
       <c r="E13">
-        <v>0.9866448708366471</v>
+        <v>0.9887673118633825</v>
       </c>
       <c r="F13">
-        <v>1.001049586382931</v>
+        <v>1.00313253437812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038529448520391</v>
+        <v>1.039408495588577</v>
       </c>
       <c r="J13">
-        <v>1.006332165031091</v>
+        <v>1.008609996044975</v>
       </c>
       <c r="K13">
-        <v>1.020371759154687</v>
+        <v>1.022282040449564</v>
       </c>
       <c r="L13">
-        <v>1.001987575141561</v>
+        <v>1.004068154306696</v>
       </c>
       <c r="M13">
-        <v>1.016112739136013</v>
+        <v>1.018156131939493</v>
       </c>
       <c r="N13">
-        <v>1.005384269235096</v>
+        <v>1.009593541672784</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025542486640467</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026908694378733</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018295342746457</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -997,46 +1111,55 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9765292145605956</v>
+        <v>0.978801225264579</v>
       </c>
       <c r="D14">
-        <v>1.006057751649491</v>
+        <v>1.007900025231796</v>
       </c>
       <c r="E14">
-        <v>0.987421968923612</v>
+        <v>0.9894436878490844</v>
       </c>
       <c r="F14">
-        <v>1.001877341072089</v>
+        <v>1.003851143035875</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038740327197066</v>
+        <v>1.03957332744481</v>
       </c>
       <c r="J14">
-        <v>1.006949188866167</v>
+        <v>1.009120243190538</v>
       </c>
       <c r="K14">
-        <v>1.020883144958889</v>
+        <v>1.022691256263492</v>
       </c>
       <c r="L14">
-        <v>1.00260233776892</v>
+        <v>1.004584699141309</v>
       </c>
       <c r="M14">
-        <v>1.016780862629466</v>
+        <v>1.01871767010664</v>
       </c>
       <c r="N14">
-        <v>1.005600451151747</v>
+        <v>1.009660860855191</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025905504889219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027199603266609</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018388557315595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1044,46 +1167,55 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9771339647373559</v>
+        <v>0.9793370000441176</v>
       </c>
       <c r="D15">
-        <v>1.006472792074019</v>
+        <v>1.008251324620383</v>
       </c>
       <c r="E15">
-        <v>0.9879039751057097</v>
+        <v>0.9898644548221686</v>
       </c>
       <c r="F15">
-        <v>1.002391144367783</v>
+        <v>1.004298474293861</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.038872218754733</v>
+        <v>1.039677143853055</v>
       </c>
       <c r="J15">
-        <v>1.00733287866521</v>
+        <v>1.00943892030975</v>
       </c>
       <c r="K15">
-        <v>1.021202409643785</v>
+        <v>1.022948220304582</v>
       </c>
       <c r="L15">
-        <v>1.002984448725058</v>
+        <v>1.004907071301364</v>
       </c>
       <c r="M15">
-        <v>1.01719642995971</v>
+        <v>1.019068300834347</v>
       </c>
       <c r="N15">
-        <v>1.005735540318545</v>
+        <v>1.009706238760445</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026137185516993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027387795134</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018447660320919</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1091,46 +1223,55 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9805865716708879</v>
+        <v>0.9824169258753922</v>
       </c>
       <c r="D16">
-        <v>1.00883243119152</v>
+        <v>1.010263271821193</v>
       </c>
       <c r="E16">
-        <v>0.9906547538002463</v>
+        <v>0.9922852406814461</v>
       </c>
       <c r="F16">
-        <v>1.005321038981346</v>
+        <v>1.006866927652516</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039612039966182</v>
+        <v>1.040264769873805</v>
       </c>
       <c r="J16">
-        <v>1.009512848608217</v>
+        <v>1.011266875463059</v>
       </c>
       <c r="K16">
-        <v>1.023007809025664</v>
+        <v>1.024413518882222</v>
       </c>
       <c r="L16">
-        <v>1.005157634052833</v>
+        <v>1.006758106747447</v>
       </c>
       <c r="M16">
-        <v>1.01955848306361</v>
+        <v>1.021076977918066</v>
       </c>
       <c r="N16">
-        <v>1.006498748989001</v>
+        <v>1.009997952622421</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027416892590174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02842731720108</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018782190555575</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1138,46 +1279,55 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.982723178947366</v>
+        <v>0.9843428903372096</v>
       </c>
       <c r="D17">
-        <v>1.010294724361467</v>
+        <v>1.011525648403815</v>
       </c>
       <c r="E17">
-        <v>0.9923597989277637</v>
+        <v>0.9938044161427642</v>
       </c>
       <c r="F17">
-        <v>1.00713710420395</v>
+        <v>1.008476295088812</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040066863724404</v>
+        <v>1.04063263732739</v>
       </c>
       <c r="J17">
-        <v>1.010861861006318</v>
+        <v>1.01241633527389</v>
       </c>
       <c r="K17">
-        <v>1.024124625791067</v>
+        <v>1.025334564755198</v>
       </c>
       <c r="L17">
-        <v>1.006503127943753</v>
+        <v>1.007921955499135</v>
       </c>
       <c r="M17">
-        <v>1.021021140761768</v>
+        <v>1.022337318674436</v>
       </c>
       <c r="N17">
-        <v>1.006970921907942</v>
+        <v>1.010218990399843</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.028209148534055</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.029081390397664</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018993157003561</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1185,46 +1335,55 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9839458241797956</v>
+        <v>0.9854529228110742</v>
       </c>
       <c r="D18">
-        <v>1.011127031231905</v>
+        <v>1.012249445870283</v>
       </c>
       <c r="E18">
-        <v>0.9933347238559606</v>
+        <v>0.9946802771463825</v>
       </c>
       <c r="F18">
-        <v>1.008174444000208</v>
+        <v>1.009401943569094</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040321926551226</v>
+        <v>1.040840822013304</v>
       </c>
       <c r="J18">
-        <v>1.01162936613321</v>
+        <v>1.013076994229242</v>
       </c>
       <c r="K18">
-        <v>1.024756422498388</v>
+        <v>1.025860035530072</v>
       </c>
       <c r="L18">
-        <v>1.007269509107609</v>
+        <v>1.008591472114337</v>
       </c>
       <c r="M18">
-        <v>1.021853552091516</v>
+        <v>1.023060336979382</v>
       </c>
       <c r="N18">
-        <v>1.00723781392192</v>
+        <v>1.010358533718782</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.028644094877073</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02944002629384</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.019112417687502</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1232,46 +1391,55 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.984371397108988</v>
+        <v>0.9858403929745222</v>
       </c>
       <c r="D19">
-        <v>1.011420886044114</v>
+        <v>1.012506410791574</v>
       </c>
       <c r="E19">
-        <v>0.9936755744097917</v>
+        <v>0.9949876047050723</v>
       </c>
       <c r="F19">
-        <v>1.008537943312687</v>
+        <v>1.009727529540227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040413728823777</v>
+        <v>1.040916631191853</v>
       </c>
       <c r="J19">
-        <v>1.011899954008009</v>
+        <v>1.013311390587901</v>
       </c>
       <c r="K19">
-        <v>1.024981847676868</v>
+        <v>1.026049298740292</v>
       </c>
       <c r="L19">
-        <v>1.007539241042932</v>
+        <v>1.008828411817992</v>
       </c>
       <c r="M19">
-        <v>1.022147148654307</v>
+        <v>1.023316785092502</v>
       </c>
       <c r="N19">
-        <v>1.007333235510438</v>
+        <v>1.010412164788794</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.028809939967803</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.029580919098738</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.019156475190315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1279,46 +1447,55 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9824939531618033</v>
+        <v>0.984135492475429</v>
       </c>
       <c r="D20">
-        <v>1.01013736592159</v>
+        <v>1.011389150263061</v>
       </c>
       <c r="E20">
-        <v>0.9921766373574974</v>
+        <v>0.9936404944946028</v>
       </c>
       <c r="F20">
-        <v>1.006941935421084</v>
+        <v>1.008302648469013</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.040017862188642</v>
+        <v>1.040592697157496</v>
       </c>
       <c r="J20">
-        <v>1.01071679142972</v>
+        <v>1.012291965608996</v>
       </c>
       <c r="K20">
-        <v>1.024004273719673</v>
+        <v>1.025234648442264</v>
       </c>
       <c r="L20">
-        <v>1.006358460377929</v>
+        <v>1.007796097543546</v>
       </c>
       <c r="M20">
-        <v>1.020863807772201</v>
+        <v>1.02220106014942</v>
       </c>
       <c r="N20">
-        <v>1.006920016842004</v>
+        <v>1.010193400654541</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.028122704438553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.029009267847171</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018970140534407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1326,46 +1503,55 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9762567314287669</v>
+        <v>0.9785913035750698</v>
       </c>
       <c r="D21">
-        <v>1.005877205058763</v>
+        <v>1.007772456444536</v>
       </c>
       <c r="E21">
-        <v>0.987207081182593</v>
+        <v>0.9892856146631376</v>
       </c>
       <c r="F21">
-        <v>1.001649495958089</v>
+        <v>1.003679976953069</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.038685941770321</v>
+        <v>1.039543021662652</v>
       </c>
       <c r="J21">
-        <v>1.006781819198048</v>
+        <v>1.00901220826258</v>
       </c>
       <c r="K21">
-        <v>1.020748080951734</v>
+        <v>1.022608058405319</v>
       </c>
       <c r="L21">
-        <v>1.002434941346871</v>
+        <v>1.004472857789217</v>
       </c>
       <c r="M21">
-        <v>1.016599685374297</v>
+        <v>1.018591964834533</v>
       </c>
       <c r="N21">
-        <v>1.005543705048116</v>
+        <v>1.009717324037308</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.025823690603263</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.027155760795847</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.018373524376557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1373,46 +1559,55 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9722181196912099</v>
+        <v>0.9750071952429438</v>
       </c>
       <c r="D22">
-        <v>1.003119038555853</v>
+        <v>1.005436251671471</v>
       </c>
       <c r="E22">
-        <v>0.9839963874190976</v>
+        <v>0.9864781009039814</v>
       </c>
       <c r="F22">
-        <v>0.9982288884334193</v>
+        <v>1.000699242929321</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.037808202113325</v>
+        <v>1.038850957202472</v>
       </c>
       <c r="J22">
-        <v>1.004228040534941</v>
+        <v>1.006884936761885</v>
       </c>
       <c r="K22">
-        <v>1.018628958879016</v>
+        <v>1.020900779163151</v>
       </c>
       <c r="L22">
-        <v>0.999891688157764</v>
+        <v>1.002322274269368</v>
       </c>
       <c r="M22">
-        <v>1.013835513229553</v>
+        <v>1.016256860396049</v>
       </c>
       <c r="N22">
-        <v>1.004647738879623</v>
+        <v>1.009395190262016</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.024311679950881</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025933676029133</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017982001748587</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1420,46 +1615,55 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9743511249579213</v>
+        <v>0.9768792339478923</v>
       </c>
       <c r="D23">
-        <v>1.004568423278448</v>
+        <v>1.006646421747468</v>
       </c>
       <c r="E23">
-        <v>0.9856888673237736</v>
+        <v>0.9879382280043314</v>
       </c>
       <c r="F23">
-        <v>1.000030775278178</v>
+        <v>1.00225078794262</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.038267426552814</v>
+        <v>1.039204424105507</v>
       </c>
       <c r="J23">
-        <v>1.005571102265114</v>
+        <v>1.007983127972914</v>
       </c>
       <c r="K23">
-        <v>1.019739191793516</v>
+        <v>1.02177756362811</v>
       </c>
       <c r="L23">
-        <v>1.001229738073347</v>
+        <v>1.003434027497621</v>
       </c>
       <c r="M23">
-        <v>1.015288825168609</v>
+        <v>1.017466006717076</v>
       </c>
       <c r="N23">
-        <v>1.005116694379077</v>
+        <v>1.009514838575929</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.025086919206781</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.026542913353469</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.018179859852882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1467,46 +1671,55 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9825692104071398</v>
+        <v>0.9842041555080668</v>
       </c>
       <c r="D24">
-        <v>1.01017819676109</v>
+        <v>1.01142340320241</v>
       </c>
       <c r="E24">
-        <v>0.9922331441725025</v>
+        <v>0.9936913207220889</v>
       </c>
       <c r="F24">
-        <v>1.006999948830611</v>
+        <v>1.008353943807794</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.040025330618388</v>
+        <v>1.040597560074596</v>
       </c>
       <c r="J24">
-        <v>1.010755157609745</v>
+        <v>1.012324111142884</v>
       </c>
       <c r="K24">
-        <v>1.024028898798448</v>
+        <v>1.025252837540462</v>
       </c>
       <c r="L24">
-        <v>1.006398041331288</v>
+        <v>1.00783013706941</v>
       </c>
       <c r="M24">
-        <v>1.020905242628644</v>
+        <v>1.022235926069242</v>
       </c>
       <c r="N24">
-        <v>1.006929904860684</v>
+        <v>1.010195613720729</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.028112422911648</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.028991782825473</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018971527250623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1514,43 +1727,52 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9917082813724246</v>
+        <v>0.9926378270575407</v>
       </c>
       <c r="D25">
-        <v>1.016442493146986</v>
+        <v>1.016978423526343</v>
       </c>
       <c r="E25">
-        <v>0.9995475321359159</v>
+        <v>1.00038914484751</v>
       </c>
       <c r="F25">
-        <v>1.014788661060152</v>
+        <v>1.015421288079051</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041936950177483</v>
+        <v>1.042205548445636</v>
       </c>
       <c r="J25">
-        <v>1.016517953775563</v>
+        <v>1.017415523554681</v>
       </c>
       <c r="K25">
-        <v>1.028790812217999</v>
+        <v>1.029318767123382</v>
       </c>
       <c r="L25">
-        <v>1.01215287614823</v>
+        <v>1.012981422845584</v>
       </c>
       <c r="M25">
-        <v>1.027161659277606</v>
+        <v>1.027784833905711</v>
       </c>
       <c r="N25">
-        <v>1.008943644656034</v>
+        <v>1.011556387463256</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.031476504541558</v>
+        <v>1.031863425698767</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019906758374739</v>
       </c>
     </row>
   </sheetData>
